--- a/__src__/__tmp__/tmp_input.xlsx
+++ b/__src__/__tmp__/tmp_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Koening\HuffModel\huff-model-macro\__src__\__tmp__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8096C9E6-7E56-4DC0-A70F-309666638361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CDED3CF-02B3-4636-94C7-876CEB3B0736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{789E4A9E-43AD-4DD6-AFC9-1131C26D79D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F470325F-AF4C-44EA-91D0-BDFC97847B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Supermercado</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Plaza Vea Los Olivos</t>
+  </si>
+  <si>
+    <t>Plaza Vea Universitaria</t>
   </si>
   <si>
     <t>Z408</t>
@@ -435,17 +438,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F79CF0A-91F5-471F-9387-EF17B229ACC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46D5F57-ED16-4D8B-B7D0-5770F06E9633}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D15"/>
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -455,32 +458,47 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.4</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.4</v>
@@ -488,21 +506,33 @@
       <c r="C4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.4</v>
       </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
       <c r="D5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -513,10 +543,13 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -527,10 +560,13 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -541,10 +577,13 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -555,10 +594,13 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -569,10 +611,13 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -583,10 +628,13 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -597,10 +645,13 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -611,10 +662,13 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -625,19 +679,25 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/__src__/__tmp__/tmp_input.xlsx
+++ b/__src__/__tmp__/tmp_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Koening\HuffModel\huff-model-macro\__src__\__tmp__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CDED3CF-02B3-4636-94C7-876CEB3B0736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C403FE4-F668-417D-A4EA-10DF353841EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F470325F-AF4C-44EA-91D0-BDFC97847B4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4D4E4582-BCAF-4A95-AA13-256551D3663F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,29 +34,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Supermercado</t>
   </si>
   <si>
+    <t>Hipermercado Metro Independencia</t>
+  </si>
+  <si>
     <t>Plaza Vea Izaguirre</t>
   </si>
   <si>
+    <t>Tottus Mega Plaza</t>
+  </si>
+  <si>
     <t>Plaza Vea Los Olivos</t>
   </si>
   <si>
-    <t>Plaza Vea Universitaria</t>
+    <t>Tottus Los Olivos</t>
+  </si>
+  <si>
+    <t>Makro Plaza Lima Norte</t>
+  </si>
+  <si>
+    <t>Makro Comas</t>
   </si>
   <si>
     <t>Z408</t>
   </si>
   <si>
+    <t>Z651</t>
+  </si>
+  <si>
     <t>Z407</t>
   </si>
   <si>
-    <t>Z651</t>
-  </si>
-  <si>
     <t>Z414</t>
   </si>
   <si>
@@ -75,13 +87,16 @@
     <t>Z417</t>
   </si>
   <si>
+    <t>Z423B</t>
+  </si>
+  <si>
     <t>Z411</t>
   </si>
   <si>
     <t>Z399</t>
   </si>
   <si>
-    <t>Z423</t>
+    <t>Z423A</t>
   </si>
   <si>
     <t>Z398</t>
@@ -438,17 +453,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46D5F57-ED16-4D8B-B7D0-5770F06E9633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20772E35-7F57-4F3B-B6FA-3A575E614FEA}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -461,95 +476,167 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -563,44 +650,80 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -612,12 +735,24 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -631,10 +766,22 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -648,10 +795,22 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -665,10 +824,22 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -682,22 +853,75 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
